--- a/要件定義書(ポートフォリオ).xlsx
+++ b/要件定義書(ポートフォリオ).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="297">
   <si>
     <t>●アイディアの概要</t>
   </si>
@@ -2604,6 +2604,29 @@
   </si>
   <si>
     <t>gem 'rails-assets-bootstrap-fileinput'</t>
+  </si>
+  <si>
+    <t>定員を超えている場合はキャンセル待ちにする。</t>
+    <rPh sb="0" eb="2">
+      <t>テイイn</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセル待ちの場合は何人目かを表示する。</t>
+    <rPh sb="8" eb="10">
+      <t>バア</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ナンn</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウj</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -16232,15 +16255,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -16249,7 +16272,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="20320000"/>
+          <a:off x="12700" y="20281900"/>
           <a:ext cx="8242300" cy="8915400"/>
           <a:chOff x="0" y="20320000"/>
           <a:chExt cx="8242300" cy="8915400"/>
@@ -16412,7 +16435,7 @@
                       <xdr:spPr>
                         <a:xfrm>
                           <a:off x="8407400" y="1308099"/>
-                          <a:ext cx="7112000" cy="6807201"/>
+                          <a:ext cx="7112000" cy="6997701"/>
                         </a:xfrm>
                         <a:prstGeom prst="rect">
                           <a:avLst/>
@@ -16814,7 +16837,7 @@
                 <xdr:spPr>
                   <a:xfrm>
                     <a:off x="990600" y="15582900"/>
-                    <a:ext cx="6146800" cy="2311400"/>
+                    <a:ext cx="6146800" cy="2413000"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
@@ -17398,7 +17421,7 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="2501900" y="27279600"/>
+                <a:off x="2501900" y="27076400"/>
                 <a:ext cx="2984500" cy="457200"/>
               </a:xfrm>
               <a:prstGeom prst="roundRect">
@@ -19256,7 +19279,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2374900" y="37325300"/>
+            <a:off x="2387600" y="37274500"/>
             <a:ext cx="2984500" cy="457200"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -23439,6 +23462,344 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2235200" y="27622500"/>
+          <a:ext cx="3759200" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>あと</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>XX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>人参加できます。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャンセル待ち</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>人目です。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="190" name="直線コネクタ 189"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5994400" y="27597100"/>
+          <a:ext cx="2997200" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="194" name="テキスト ボックス 193"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2425700" y="16383000"/>
+          <a:ext cx="3759200" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>あと</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>XX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>人参加できます。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャンセル待ち</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>人目です。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="テキスト ボックス 194"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="37744400"/>
+          <a:ext cx="3759200" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>あなたはキャンセル待ち</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>X</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>人目です。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="196" name="直線コネクタ 195"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="195" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6464300" y="37503100"/>
+          <a:ext cx="2387600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26529,8 +26890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -26590,12 +26951,22 @@
         <v>263</v>
       </c>
     </row>
+    <row r="109" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I109" t="s">
+        <v>295</v>
+      </c>
+    </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I148" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>264</v>
       </c>
@@ -29446,7 +29817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="J188" sqref="J188"/>
     </sheetView>
   </sheetViews>

--- a/要件定義書(ポートフォリオ).xlsx
+++ b/要件定義書(ポートフォリオ).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="10"/>
+    <workbookView xWindow="1820" yWindow="14040" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -26890,7 +26890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
       <selection activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>

--- a/要件定義書(ポートフォリオ).xlsx
+++ b/要件定義書(ポートフォリオ).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="14040" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="298">
   <si>
     <t>●アイディアの概要</t>
   </si>
@@ -2628,6 +2628,13 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>レイアウト整えた？</t>
+    <rPh sb="5" eb="6">
+      <t>トトノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2895,7 +2902,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3098,6 +3105,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -3150,7 +3163,127 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -26890,7 +27023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
@@ -27373,10 +27506,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -27389,29 +27522,30 @@
     <col min="6" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="72" t="s">
         <v>147</v>
       </c>
@@ -27422,7 +27556,7 @@
       <c r="H5" s="72"/>
       <c r="I5" s="72"/>
     </row>
-    <row r="6" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -27450,8 +27584,11 @@
       <c r="I6" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="J6" s="78" t="s">
+        <v>297</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" ht="41" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="41" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44">
         <f>ROW()-6</f>
         <v>1</v>
@@ -27481,8 +27618,11 @@
       <c r="I7" s="47" t="s">
         <v>5</v>
       </c>
+      <c r="J7" s="79" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="44">
         <f t="shared" ref="A8:A29" si="0">ROW()-6</f>
         <v>2</v>
@@ -27512,8 +27652,11 @@
       <c r="I8" s="51" t="s">
         <v>143</v>
       </c>
+      <c r="J8" s="79" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -27543,8 +27686,11 @@
       <c r="I9" s="51" t="s">
         <v>5</v>
       </c>
+      <c r="J9" s="79" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -27575,8 +27721,11 @@
       <c r="I10" s="51" t="s">
         <v>5</v>
       </c>
+      <c r="J10" s="79" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -27607,8 +27756,11 @@
       <c r="I11" s="51" t="s">
         <v>5</v>
       </c>
+      <c r="J11" s="79" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" ht="40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="40" x14ac:dyDescent="0.3">
       <c r="A12" s="44">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -27638,8 +27790,11 @@
       <c r="I12" s="51" t="s">
         <v>5</v>
       </c>
+      <c r="J12" s="79" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" ht="40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="40" x14ac:dyDescent="0.3">
       <c r="A13" s="44">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -27670,7 +27825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="44">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -27701,7 +27856,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -27733,7 +27888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="40" x14ac:dyDescent="0.3">
       <c r="A16" s="44">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -28153,33 +28308,58 @@
     <mergeCell ref="C5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A7:I7 B23:C25 D23:D27 B22:D22 E22:G27 H22:I29 A8:A29 B8:I21">
-    <cfRule type="cellIs" dxfId="5" priority="25" operator="greaterThan">
+  <conditionalFormatting sqref="B23:C25 D23:D27 B22:D22 E22:G27 H22:I29 A8:A29 B8:I21 A7:J7">
+    <cfRule type="cellIs" dxfId="17" priority="30" operator="greaterThan">
       <formula>$I$7:$I$25="低"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:C27">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="greaterThan">
       <formula>$I$7:$I$25="低"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:G29">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
       <formula>$I$7:$I$25="低"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:C29">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="greaterThan">
       <formula>$I$7:$I$25="低"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:G28">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="greaterThan">
       <formula>$I$7:$I$25="低"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:C28">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
+      <formula>$I$7:$I$25="低"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+      <formula>$I$7:$I$25="低"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
+      <formula>$I$7:$I$25="低"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+      <formula>$I$7:$I$25="低"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>$I$7:$I$25="低"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>$I$7:$I$25="低"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28200,7 +28380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="102" workbookViewId="0">
+    <sheetView zoomScale="102" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>

--- a/要件定義書(ポートフォリオ).xlsx
+++ b/要件定義書(ポートフォリオ).xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="298">
   <si>
     <t>●アイディアの概要</t>
   </si>
@@ -2640,7 +2640,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2735,6 +2735,14 @@
       <color rgb="FFE3E3E3"/>
       <name val="Consolas"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2851,7 +2859,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2901,8 +2909,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3111,8 +3123,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="53">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -3137,6 +3152,8 @@
     <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -3162,6 +3179,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -27508,8 +27527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -27790,8 +27809,8 @@
       <c r="I12" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="79" t="s">
-        <v>45</v>
+      <c r="J12" s="80" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="40" x14ac:dyDescent="0.3">
@@ -27824,6 +27843,9 @@
       <c r="I13" s="51" t="s">
         <v>5</v>
       </c>
+      <c r="J13" s="80" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="44">
@@ -27855,6 +27877,9 @@
       <c r="I14" s="51" t="s">
         <v>143</v>
       </c>
+      <c r="J14" s="80" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
@@ -27921,8 +27946,11 @@
       <c r="I16" s="51" t="s">
         <v>5</v>
       </c>
+      <c r="J16" s="80" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="44">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -27951,7 +27979,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="44">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -27980,7 +28008,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="44">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -28010,8 +28038,11 @@
       <c r="I19" s="51" t="s">
         <v>5</v>
       </c>
+      <c r="J19" s="80" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="44">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -28041,8 +28072,11 @@
       <c r="I20" s="51" t="s">
         <v>5</v>
       </c>
+      <c r="J20" s="80" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="44">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -28071,7 +28105,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="44">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -28100,7 +28134,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="44">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -28129,7 +28163,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="44">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -28158,7 +28192,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="44">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -28187,7 +28221,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="44">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -28216,7 +28250,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="40" x14ac:dyDescent="0.3">
       <c r="A27" s="44">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -28245,7 +28279,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="44">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -28274,7 +28308,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="44">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -28355,11 +28389,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
-      <formula>$I$7:$I$25="低"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>$I$7:$I$25="低"</formula>
     </cfRule>
   </conditionalFormatting>
